--- a/Code/Results/Cases/Case_1_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_176/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.268150083188607</v>
+        <v>7.824261088474345</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.52263814726867</v>
+        <v>6.807530062930876</v>
       </c>
       <c r="E2">
-        <v>10.5081273547624</v>
+        <v>9.773572391995119</v>
       </c>
       <c r="F2">
-        <v>37.06692476351382</v>
+        <v>37.03433097042019</v>
       </c>
       <c r="G2">
-        <v>2.071971836276383</v>
+        <v>3.679968072685935</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.24829659987686</v>
+        <v>15.17859874569648</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.50078086367413</v>
+        <v>16.42518571576159</v>
       </c>
       <c r="N2">
-        <v>14.65731687677821</v>
+        <v>21.02753937519212</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.904479906369218</v>
+        <v>7.754779508670498</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.596518794785347</v>
+        <v>6.826520897114252</v>
       </c>
       <c r="E3">
-        <v>9.894481516560262</v>
+        <v>9.644333653177222</v>
       </c>
       <c r="F3">
-        <v>35.30654856768486</v>
+        <v>36.68947545479829</v>
       </c>
       <c r="G3">
-        <v>2.083557260248652</v>
+        <v>3.683945753293896</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.7915869858518</v>
+        <v>14.81249415862314</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.18123720099981</v>
+        <v>16.19663982001731</v>
       </c>
       <c r="N3">
-        <v>14.78801461166364</v>
+        <v>21.06748923603365</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.67551595640682</v>
+        <v>7.713725099500479</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.643619268706391</v>
+        <v>6.838861953500285</v>
       </c>
       <c r="E4">
-        <v>9.510827118329404</v>
+        <v>9.567241304595193</v>
       </c>
       <c r="F4">
-        <v>34.22320597916527</v>
+        <v>36.48671385748267</v>
       </c>
       <c r="G4">
-        <v>2.090811712295957</v>
+        <v>3.686512532372289</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.85365540596032</v>
+        <v>14.58829678414626</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.33251717055479</v>
+        <v>16.05994050078433</v>
       </c>
       <c r="N4">
-        <v>14.87362669668433</v>
+        <v>21.09389555744258</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.580903850706942</v>
+        <v>7.697417151736683</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.663230957338579</v>
+        <v>6.844062076652903</v>
       </c>
       <c r="E5">
-        <v>9.352851243992808</v>
+        <v>9.536429453851163</v>
       </c>
       <c r="F5">
-        <v>33.78146286831932</v>
+        <v>36.40641926017597</v>
       </c>
       <c r="G5">
-        <v>2.093806687451299</v>
+        <v>3.687589940230948</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.46027735043225</v>
+        <v>14.49723385547207</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.97676642720653</v>
+        <v>16.0052154255271</v>
       </c>
       <c r="N5">
-        <v>14.90980640546421</v>
+        <v>21.10512775087132</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.565118488339778</v>
+        <v>7.694735225711356</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.666512222082935</v>
+        <v>6.844935880972384</v>
       </c>
       <c r="E6">
-        <v>9.32652439138819</v>
+        <v>9.531350650025647</v>
       </c>
       <c r="F6">
-        <v>33.70810726521699</v>
+        <v>36.39322933546831</v>
       </c>
       <c r="G6">
-        <v>2.094306430476238</v>
+        <v>3.687770744654925</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.39427674337448</v>
+        <v>14.4821354708636</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.91709122288117</v>
+        <v>15.99618957783029</v>
       </c>
       <c r="N6">
-        <v>14.91589052826098</v>
+        <v>21.10702130318248</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.674245106436977</v>
+        <v>7.713503432963323</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.643882089042059</v>
+        <v>6.838931391799365</v>
       </c>
       <c r="E7">
-        <v>9.508703058873465</v>
+        <v>9.566823274272286</v>
       </c>
       <c r="F7">
-        <v>34.21724905205835</v>
+        <v>36.48562143899758</v>
       </c>
       <c r="G7">
-        <v>2.090851942637586</v>
+        <v>3.686526935269079</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.84839565641468</v>
+        <v>14.58706726430222</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.3277596980616</v>
+        <v>16.05919839836572</v>
       </c>
       <c r="N7">
-        <v>14.87410946719611</v>
+        <v>21.0940451308779</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.143997466744587</v>
+        <v>7.799981121019071</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.547738766007744</v>
+        <v>6.813936778539734</v>
       </c>
       <c r="E8">
-        <v>10.29801260090531</v>
+        <v>9.728563332758172</v>
       </c>
       <c r="F8">
-        <v>36.46063689480123</v>
+        <v>36.91360672949188</v>
       </c>
       <c r="G8">
-        <v>2.075939304556154</v>
+        <v>3.681313820016489</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.75491322389288</v>
+        <v>15.05233189209553</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.05366693535159</v>
+        <v>16.34567167246924</v>
       </c>
       <c r="N8">
-        <v>14.70123221693001</v>
+        <v>21.04092418186383</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.016086854785364</v>
+        <v>7.981499944431238</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.374109246191439</v>
+        <v>6.770327448857846</v>
       </c>
       <c r="E9">
-        <v>11.82243800023322</v>
+        <v>10.06205463582595</v>
       </c>
       <c r="F9">
-        <v>40.83055167498571</v>
+        <v>37.82065797419023</v>
       </c>
       <c r="G9">
-        <v>2.047648787137692</v>
+        <v>3.672072741958657</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.15939563815532</v>
+        <v>15.96304309170919</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.14279979086654</v>
+        <v>16.93313810882891</v>
       </c>
       <c r="N9">
-        <v>14.4077027762082</v>
+        <v>20.95167276518701</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.688236642881737</v>
+        <v>8.120999676585964</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.257717587055168</v>
+        <v>6.741589498099418</v>
       </c>
       <c r="E10">
-        <v>13.05373520774232</v>
+        <v>10.31479164372174</v>
       </c>
       <c r="F10">
-        <v>44.01883323185178</v>
+        <v>38.52342841112491</v>
       </c>
       <c r="G10">
-        <v>2.027183612570834</v>
+        <v>3.665873791429857</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.47395143737641</v>
+        <v>16.62302219406168</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.24826690401453</v>
+        <v>17.37618885259293</v>
       </c>
       <c r="N10">
-        <v>14.22453455560531</v>
+        <v>20.89523063602732</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.009666406746925</v>
+        <v>8.185543599374371</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.207857973970787</v>
+        <v>6.729234638338383</v>
       </c>
       <c r="E11">
-        <v>13.59754717175071</v>
+        <v>10.43096358550105</v>
       </c>
       <c r="F11">
-        <v>45.46616642769378</v>
+        <v>38.84991110645272</v>
       </c>
       <c r="G11">
-        <v>2.017874387079579</v>
+        <v>3.663180213622772</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.49071038533379</v>
+        <v>16.91971600099581</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.174570718835</v>
+        <v>17.5793278770345</v>
       </c>
       <c r="N11">
-        <v>14.14955736562059</v>
+        <v>20.87154450931041</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.129150656286185</v>
+        <v>8.210119342180551</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.189496600051177</v>
+        <v>6.724659661249071</v>
       </c>
       <c r="E12">
-        <v>13.80138580143545</v>
+        <v>10.47508742093925</v>
       </c>
       <c r="F12">
-        <v>46.01413062531655</v>
+        <v>38.97442057039875</v>
       </c>
       <c r="G12">
-        <v>2.014342574466288</v>
+        <v>3.662178262163886</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.87095138823116</v>
+        <v>17.03143879160166</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.5212074070278</v>
+        <v>17.65640623860917</v>
       </c>
       <c r="N12">
-        <v>14.12249672883478</v>
+        <v>20.86286205069808</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.103515975715297</v>
+        <v>8.204820885242366</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.193426543077202</v>
+        <v>6.725640354957439</v>
       </c>
       <c r="E13">
-        <v>13.75757405165562</v>
+        <v>10.46557933116755</v>
       </c>
       <c r="F13">
-        <v>45.89611467528222</v>
+        <v>38.94756778310885</v>
       </c>
       <c r="G13">
-        <v>2.015103624860601</v>
+        <v>3.66239324958464</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.78926521949256</v>
+        <v>17.00740707694299</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.44673001573448</v>
+        <v>17.63980036225148</v>
       </c>
       <c r="N13">
-        <v>14.12826317611489</v>
+        <v>20.86471919695094</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.019540875234213</v>
+        <v>8.187562891755363</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.206336463190212</v>
+        <v>6.728856175518418</v>
       </c>
       <c r="E14">
-        <v>13.6143574164185</v>
+        <v>10.43459126419106</v>
       </c>
       <c r="F14">
-        <v>45.51124752254968</v>
+        <v>38.86013755677807</v>
       </c>
       <c r="G14">
-        <v>2.017583997113022</v>
+        <v>3.663097421462362</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.52208633368865</v>
+        <v>16.92892076153928</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.20316913857915</v>
+        <v>17.58566649769426</v>
       </c>
       <c r="N14">
-        <v>14.14730355489499</v>
+        <v>20.87082444210315</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.96781454365466</v>
+        <v>8.177008727491287</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.214314363376111</v>
+        <v>6.730839450731627</v>
       </c>
       <c r="E15">
-        <v>13.52636895260797</v>
+        <v>10.41562617880231</v>
       </c>
       <c r="F15">
-        <v>45.27550344935145</v>
+        <v>38.80669535339025</v>
       </c>
       <c r="G15">
-        <v>2.019102220301571</v>
+        <v>3.663531093840433</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.3578218576489</v>
+        <v>16.88076032357721</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.05345524841537</v>
+        <v>17.55252579983181</v>
       </c>
       <c r="N15">
-        <v>14.15914401122876</v>
+        <v>20.87460147772488</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.66691454358781</v>
+        <v>8.116801560287914</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.261044183939574</v>
+        <v>6.742411391165852</v>
       </c>
       <c r="E16">
-        <v>13.01788850481163</v>
+        <v>10.30722021055161</v>
       </c>
       <c r="F16">
-        <v>43.92420990479306</v>
+        <v>38.50222020222625</v>
       </c>
       <c r="G16">
-        <v>2.02779145337067</v>
+        <v>3.666052355256504</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.40681065053595</v>
+        <v>16.60355093843689</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.187129588936</v>
+        <v>17.36293884561492</v>
       </c>
       <c r="N16">
-        <v>14.22961320496617</v>
+        <v>20.89681868974791</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.478279384260819</v>
+        <v>8.080128885203433</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.290550178636211</v>
+        <v>6.749694527781469</v>
       </c>
       <c r="E17">
-        <v>12.7019442132101</v>
+        <v>10.24099511999719</v>
       </c>
       <c r="F17">
-        <v>43.09464148813022</v>
+        <v>38.31710357200885</v>
       </c>
       <c r="G17">
-        <v>2.033117690049741</v>
+        <v>3.667631343469044</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.81441601365448</v>
+        <v>16.43249827033672</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.64786595279009</v>
+        <v>17.24698754770997</v>
       </c>
       <c r="N17">
-        <v>14.27506862729174</v>
+        <v>20.91095843275219</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.36827751637011</v>
+        <v>8.059139140677592</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.307806359763227</v>
+        <v>6.753951176423341</v>
       </c>
       <c r="E18">
-        <v>12.51866888978645</v>
+        <v>10.20301961334821</v>
       </c>
       <c r="F18">
-        <v>42.61718146321171</v>
+        <v>38.21127439653858</v>
       </c>
       <c r="G18">
-        <v>2.036181699527268</v>
+        <v>3.668551436207888</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.47025642587695</v>
+        <v>16.33378731967882</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.33470591467295</v>
+        <v>17.18044978500919</v>
       </c>
       <c r="N18">
-        <v>14.30199002870545</v>
+        <v>20.91927846510772</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.330772804122587</v>
+        <v>8.052050792436823</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.313695972987134</v>
+        <v>6.755404003817205</v>
       </c>
       <c r="E19">
-        <v>12.45634120283149</v>
+        <v>10.19018282723535</v>
       </c>
       <c r="F19">
-        <v>42.45546034310937</v>
+        <v>38.17555622324547</v>
       </c>
       <c r="G19">
-        <v>2.037219394006544</v>
+        <v>3.668865011433363</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.35312910422142</v>
+        <v>16.30031331724851</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.22815069348621</v>
+        <v>17.15795006344242</v>
       </c>
       <c r="N19">
-        <v>14.31123487558912</v>
+        <v>20.92212761576971</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.498515167588717</v>
+        <v>8.084022208267614</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.287379219705505</v>
+        <v>6.748912229204751</v>
       </c>
       <c r="E20">
-        <v>12.73573597644351</v>
+        <v>10.2480332448833</v>
       </c>
       <c r="F20">
-        <v>43.18298111890792</v>
+        <v>38.33674350776909</v>
       </c>
       <c r="G20">
-        <v>2.032550696681662</v>
+        <v>3.667462026707439</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.87782959104118</v>
+        <v>16.4507417577154</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.70557825293815</v>
+        <v>17.25931533441353</v>
       </c>
       <c r="N20">
-        <v>14.27014855528959</v>
+        <v>20.90943384969283</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.044266547236401</v>
+        <v>8.192628508825196</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.202529714505849</v>
+        <v>6.727908798781843</v>
       </c>
       <c r="E21">
-        <v>13.65647815176683</v>
+        <v>10.44368994776622</v>
       </c>
       <c r="F21">
-        <v>45.62429190410523</v>
+        <v>38.88579490907908</v>
       </c>
       <c r="G21">
-        <v>2.016855689371138</v>
+        <v>3.662890100263865</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.6006894865549</v>
+        <v>16.95199207475486</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.27481767084285</v>
+        <v>17.60156333614824</v>
       </c>
       <c r="N21">
-        <v>14.14167364173118</v>
+        <v>20.86902338862001</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.387954766283721</v>
+        <v>8.264382130278618</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.150152726756333</v>
+        <v>6.714785493130083</v>
       </c>
       <c r="E22">
-        <v>14.24619430354303</v>
+        <v>10.57231418983361</v>
       </c>
       <c r="F22">
-        <v>47.21946167285359</v>
+        <v>39.2497003691071</v>
       </c>
       <c r="G22">
-        <v>2.006555688449541</v>
+        <v>3.660007223235817</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.69903197184431</v>
+        <v>17.27587385972845</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.27653245175598</v>
+        <v>17.82610634650003</v>
       </c>
       <c r="N22">
-        <v>14.06554655875464</v>
+        <v>20.84428586824229</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.205690113595896</v>
+        <v>8.226022278856032</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.177795608086681</v>
+        <v>6.721734320542998</v>
       </c>
       <c r="E23">
-        <v>13.93245924255022</v>
+        <v>10.50360952124231</v>
       </c>
       <c r="F23">
-        <v>46.36797255862331</v>
+        <v>39.05504625532055</v>
       </c>
       <c r="G23">
-        <v>2.012059355788561</v>
+        <v>3.661536288712426</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.1152030756088</v>
+        <v>17.10338944024417</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.74393788605357</v>
+        <v>17.70620881080123</v>
       </c>
       <c r="N23">
-        <v>14.10541059832362</v>
+        <v>20.85733537783314</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.489371411484843</v>
+        <v>8.082261742902478</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.288811903716692</v>
+        <v>6.749265690007879</v>
       </c>
       <c r="E24">
-        <v>12.72046383080089</v>
+        <v>10.24485099972701</v>
       </c>
       <c r="F24">
-        <v>43.14304444552037</v>
+        <v>38.32786242631518</v>
       </c>
       <c r="G24">
-        <v>2.03280702802176</v>
+        <v>3.667538536458865</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.84917150658692</v>
+        <v>16.44249502183322</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.679496300762</v>
+        <v>17.25374154953214</v>
       </c>
       <c r="N24">
-        <v>14.27237047360656</v>
+        <v>20.91012251912928</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.785912985516333</v>
+        <v>7.931232124759576</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.419302048953801</v>
+        <v>6.781545654092461</v>
       </c>
       <c r="E25">
-        <v>11.39206929844134</v>
+        <v>9.970317190210915</v>
       </c>
       <c r="F25">
-        <v>39.65242549758535</v>
+        <v>37.56851873706272</v>
       </c>
       <c r="G25">
-        <v>2.055225099029141</v>
+        <v>3.674468423480928</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.27252274918598</v>
+        <v>15.71771427411785</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.33718996435413</v>
+        <v>16.77189670410579</v>
       </c>
       <c r="N25">
-        <v>14.48179320776931</v>
+        <v>20.97421684317742</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_176/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.824261088474345</v>
+        <v>7.2681500831886</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.807530062930876</v>
+        <v>4.522638147268681</v>
       </c>
       <c r="E2">
-        <v>9.773572391995119</v>
+        <v>10.50812735476243</v>
       </c>
       <c r="F2">
-        <v>37.03433097042019</v>
+        <v>37.0669247635138</v>
       </c>
       <c r="G2">
-        <v>3.679968072685935</v>
+        <v>2.071971836276517</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.17859874569648</v>
+        <v>20.24829659987682</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.42518571576159</v>
+        <v>18.50078086367411</v>
       </c>
       <c r="N2">
-        <v>21.02753937519212</v>
+        <v>14.65731687677823</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.754779508670498</v>
+        <v>6.904479906369268</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.826520897114252</v>
+        <v>4.596518794785708</v>
       </c>
       <c r="E3">
-        <v>9.644333653177222</v>
+        <v>9.894481516560235</v>
       </c>
       <c r="F3">
-        <v>36.68947545479829</v>
+        <v>35.30654856768489</v>
       </c>
       <c r="G3">
-        <v>3.683945753293896</v>
+        <v>2.083557260248518</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.81249415862314</v>
+        <v>18.79158698585174</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.19663982001731</v>
+        <v>17.18123720099982</v>
       </c>
       <c r="N3">
-        <v>21.06748923603365</v>
+        <v>14.78801461166365</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.713725099500479</v>
+        <v>6.675515956406832</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.838861953500285</v>
+        <v>4.643619268706632</v>
       </c>
       <c r="E4">
-        <v>9.567241304595193</v>
+        <v>9.510827118329406</v>
       </c>
       <c r="F4">
-        <v>36.48671385748267</v>
+        <v>34.22320597916525</v>
       </c>
       <c r="G4">
-        <v>3.686512532372289</v>
+        <v>2.090811712295959</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.58829678414626</v>
+        <v>17.85365540596029</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.05994050078433</v>
+        <v>16.33251717055476</v>
       </c>
       <c r="N4">
-        <v>21.09389555744258</v>
+        <v>14.87362669668432</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.697417151736683</v>
+        <v>6.58090385070693</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.844062076652903</v>
+        <v>4.663230957338592</v>
       </c>
       <c r="E5">
-        <v>9.536429453851163</v>
+        <v>9.352851243992786</v>
       </c>
       <c r="F5">
-        <v>36.40641926017597</v>
+        <v>33.78146286831926</v>
       </c>
       <c r="G5">
-        <v>3.687589940230948</v>
+        <v>2.093806687451163</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.49723385547207</v>
+        <v>17.46027735043227</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.0052154255271</v>
+        <v>15.97676642720655</v>
       </c>
       <c r="N5">
-        <v>21.10512775087132</v>
+        <v>14.90980640546415</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.694735225711356</v>
+        <v>6.565118488339787</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.844935880972384</v>
+        <v>4.666512222083058</v>
       </c>
       <c r="E6">
-        <v>9.531350650025647</v>
+        <v>9.326524391388201</v>
       </c>
       <c r="F6">
-        <v>36.39322933546831</v>
+        <v>33.70810726521697</v>
       </c>
       <c r="G6">
-        <v>3.687770744654925</v>
+        <v>2.094306430476239</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.4821354708636</v>
+        <v>17.39427674337447</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.99618957783029</v>
+        <v>15.91709122288115</v>
       </c>
       <c r="N6">
-        <v>21.10702130318248</v>
+        <v>14.91589052826098</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.713503432963323</v>
+        <v>6.674245106436942</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.838931391799365</v>
+        <v>4.643882089042059</v>
       </c>
       <c r="E7">
-        <v>9.566823274272286</v>
+        <v>9.508703058873436</v>
       </c>
       <c r="F7">
-        <v>36.48562143899758</v>
+        <v>34.21724905205842</v>
       </c>
       <c r="G7">
-        <v>3.686526935269079</v>
+        <v>2.090851942637587</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.58706726430222</v>
+        <v>17.84839565641473</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.05919839836572</v>
+        <v>16.32775969806164</v>
       </c>
       <c r="N7">
-        <v>21.0940451308779</v>
+        <v>14.87410946719615</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.799981121019071</v>
+        <v>7.143997466744594</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.813936778539734</v>
+        <v>4.547738766007679</v>
       </c>
       <c r="E8">
-        <v>9.728563332758172</v>
+        <v>10.2980126009053</v>
       </c>
       <c r="F8">
-        <v>36.91360672949188</v>
+        <v>36.46063689480127</v>
       </c>
       <c r="G8">
-        <v>3.681313820016489</v>
+        <v>2.075939304556156</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.05233189209553</v>
+        <v>19.75491322389288</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.34567167246924</v>
+        <v>18.05366693535158</v>
       </c>
       <c r="N8">
-        <v>21.04092418186383</v>
+        <v>14.70123221693002</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.981499944431238</v>
+        <v>8.016086854785362</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.770327448857846</v>
+        <v>4.374109246191425</v>
       </c>
       <c r="E9">
-        <v>10.06205463582595</v>
+        <v>11.82243800023323</v>
       </c>
       <c r="F9">
-        <v>37.82065797419023</v>
+        <v>40.83055167498573</v>
       </c>
       <c r="G9">
-        <v>3.672072741958657</v>
+        <v>2.047648787137827</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.96304309170919</v>
+        <v>23.15939563815535</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.93313810882891</v>
+        <v>21.14279979086657</v>
       </c>
       <c r="N9">
-        <v>20.95167276518701</v>
+        <v>14.4077027762082</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.120999676585964</v>
+        <v>8.688236642881856</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.741589498099418</v>
+        <v>4.257717587055232</v>
       </c>
       <c r="E10">
-        <v>10.31479164372174</v>
+        <v>13.0537352077423</v>
       </c>
       <c r="F10">
-        <v>38.52342841112491</v>
+        <v>44.01883323185174</v>
       </c>
       <c r="G10">
-        <v>3.665873791429857</v>
+        <v>2.027183612570832</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.62302219406168</v>
+        <v>25.47395143737637</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.37618885259293</v>
+        <v>23.2482669040145</v>
       </c>
       <c r="N10">
-        <v>20.89523063602732</v>
+        <v>14.22453455560528</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.185543599374371</v>
+        <v>9.009666406746916</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.729234638338383</v>
+        <v>4.207857973970849</v>
       </c>
       <c r="E11">
-        <v>10.43096358550105</v>
+        <v>13.5975471717507</v>
       </c>
       <c r="F11">
-        <v>38.84991110645272</v>
+        <v>45.46616642769374</v>
       </c>
       <c r="G11">
-        <v>3.663180213622772</v>
+        <v>2.017874387079707</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.91971600099581</v>
+        <v>26.49071038533381</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.5793278770345</v>
+        <v>24.17457071883499</v>
       </c>
       <c r="N11">
-        <v>20.87154450931041</v>
+        <v>14.14955736562058</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.210119342180551</v>
+        <v>9.129150656286177</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.724659661249071</v>
+        <v>4.189496600051255</v>
       </c>
       <c r="E12">
-        <v>10.47508742093925</v>
+        <v>13.80138580143539</v>
       </c>
       <c r="F12">
-        <v>38.97442057039875</v>
+        <v>46.01413062531661</v>
       </c>
       <c r="G12">
-        <v>3.662178262163886</v>
+        <v>2.01434257446642</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.03143879160166</v>
+        <v>26.87095138823113</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.65640623860917</v>
+        <v>24.52120740702777</v>
       </c>
       <c r="N12">
-        <v>20.86286205069808</v>
+        <v>14.1224967288348</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.204820885242366</v>
+        <v>9.103515975715304</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.725640354957439</v>
+        <v>4.193426543077414</v>
       </c>
       <c r="E13">
-        <v>10.46557933116755</v>
+        <v>13.7575740516556</v>
       </c>
       <c r="F13">
-        <v>38.94756778310885</v>
+        <v>45.8961146752822</v>
       </c>
       <c r="G13">
-        <v>3.66239324958464</v>
+        <v>2.015103624860869</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.00740707694299</v>
+        <v>26.78926521949257</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.63980036225148</v>
+        <v>24.44673001573448</v>
       </c>
       <c r="N13">
-        <v>20.86471919695094</v>
+        <v>14.12826317611494</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.187562891755363</v>
+        <v>9.019540875234282</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.728856175518418</v>
+        <v>4.206336463190195</v>
       </c>
       <c r="E14">
-        <v>10.43459126419106</v>
+        <v>13.61435741641852</v>
       </c>
       <c r="F14">
-        <v>38.86013755677807</v>
+        <v>45.51124752254962</v>
       </c>
       <c r="G14">
-        <v>3.663097421462362</v>
+        <v>2.017583997113019</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.92892076153928</v>
+        <v>26.52208633368862</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.58566649769426</v>
+        <v>24.20316913857911</v>
       </c>
       <c r="N14">
-        <v>20.87082444210315</v>
+        <v>14.14730355489505</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.177008727491287</v>
+        <v>8.967814543654592</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.730839450731627</v>
+        <v>4.214314363376022</v>
       </c>
       <c r="E15">
-        <v>10.41562617880231</v>
+        <v>13.52636895260795</v>
       </c>
       <c r="F15">
-        <v>38.80669535339025</v>
+        <v>45.27550344935158</v>
       </c>
       <c r="G15">
-        <v>3.663531093840433</v>
+        <v>2.019102220301835</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.88076032357721</v>
+        <v>26.35782185764904</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.55252579983181</v>
+        <v>24.05345524841544</v>
       </c>
       <c r="N15">
-        <v>20.87460147772488</v>
+        <v>14.1591440112287</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.116801560287914</v>
+        <v>8.666914543587803</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.742411391165852</v>
+        <v>4.261044183939643</v>
       </c>
       <c r="E16">
-        <v>10.30722021055161</v>
+        <v>13.01788850481161</v>
       </c>
       <c r="F16">
-        <v>38.50222020222625</v>
+        <v>43.924209904793</v>
       </c>
       <c r="G16">
-        <v>3.666052355256504</v>
+        <v>2.027791453370665</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.60355093843689</v>
+        <v>25.40681065053603</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.36293884561492</v>
+        <v>23.18712958893606</v>
       </c>
       <c r="N16">
-        <v>20.89681868974791</v>
+        <v>14.22961320496616</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.080128885203433</v>
+        <v>8.478279384260782</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.749694527781469</v>
+        <v>4.290550178636315</v>
       </c>
       <c r="E17">
-        <v>10.24099511999719</v>
+        <v>12.70194421321015</v>
       </c>
       <c r="F17">
-        <v>38.31710357200885</v>
+        <v>43.09464148813021</v>
       </c>
       <c r="G17">
-        <v>3.667631343469044</v>
+        <v>2.033117690049611</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.43249827033672</v>
+        <v>24.81441601365441</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.24698754770997</v>
+        <v>22.64786595279007</v>
       </c>
       <c r="N17">
-        <v>20.91095843275219</v>
+        <v>14.27506862729176</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.059139140677592</v>
+        <v>8.368277516370078</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.753951176423341</v>
+        <v>4.307806359763347</v>
       </c>
       <c r="E18">
-        <v>10.20301961334821</v>
+        <v>12.51866888978642</v>
       </c>
       <c r="F18">
-        <v>38.21127439653858</v>
+        <v>42.61718146321176</v>
       </c>
       <c r="G18">
-        <v>3.668551436207888</v>
+        <v>2.036181699527273</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.33378731967882</v>
+        <v>24.47025642587695</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.18044978500919</v>
+        <v>22.33470591467292</v>
       </c>
       <c r="N18">
-        <v>20.91927846510772</v>
+        <v>14.30199002870546</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.052050792436823</v>
+        <v>8.33077280412258</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.755404003817205</v>
+        <v>4.313695972987034</v>
       </c>
       <c r="E19">
-        <v>10.19018282723535</v>
+        <v>12.45634120283151</v>
       </c>
       <c r="F19">
-        <v>38.17555622324547</v>
+        <v>42.45546034310934</v>
       </c>
       <c r="G19">
-        <v>3.668865011433363</v>
+        <v>2.037219394006546</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.30031331724851</v>
+        <v>24.35312910422134</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.15795006344242</v>
+        <v>22.22815069348615</v>
       </c>
       <c r="N19">
-        <v>20.92212761576971</v>
+        <v>14.31123487558914</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.084022208267614</v>
+        <v>8.498515167588714</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.748912229204751</v>
+        <v>4.287379219705485</v>
       </c>
       <c r="E20">
-        <v>10.2480332448833</v>
+        <v>12.73573597644348</v>
       </c>
       <c r="F20">
-        <v>38.33674350776909</v>
+        <v>43.1829811189079</v>
       </c>
       <c r="G20">
-        <v>3.667462026707439</v>
+        <v>2.032550696681795</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.4507417577154</v>
+        <v>24.87782959104111</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.25931533441353</v>
+        <v>22.70557825293807</v>
       </c>
       <c r="N20">
-        <v>20.90943384969283</v>
+        <v>14.27014855528963</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.192628508825196</v>
+        <v>9.044266547236383</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.727908798781843</v>
+        <v>4.202529714505801</v>
       </c>
       <c r="E21">
-        <v>10.44368994776622</v>
+        <v>13.65647815176677</v>
       </c>
       <c r="F21">
-        <v>38.88579490907908</v>
+        <v>45.62429190410522</v>
       </c>
       <c r="G21">
-        <v>3.662890100263865</v>
+        <v>2.016855689371006</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.95199207475486</v>
+        <v>26.60068948655491</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.60156333614824</v>
+        <v>24.27481767084283</v>
       </c>
       <c r="N21">
-        <v>20.86902338862001</v>
+        <v>14.14167364173118</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.264382130278618</v>
+        <v>9.387954766283809</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.714785493130083</v>
+        <v>4.150152726756437</v>
       </c>
       <c r="E22">
-        <v>10.57231418983361</v>
+        <v>14.24619430354307</v>
       </c>
       <c r="F22">
-        <v>39.2497003691071</v>
+        <v>47.21946167285361</v>
       </c>
       <c r="G22">
-        <v>3.660007223235817</v>
+        <v>2.006555688449672</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.27587385972845</v>
+        <v>27.69903197184439</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.82610634650003</v>
+        <v>25.27653245175606</v>
       </c>
       <c r="N22">
-        <v>20.84428586824229</v>
+        <v>14.0655465587546</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.226022278856032</v>
+        <v>9.205690113595905</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.721734320542998</v>
+        <v>4.177795608086935</v>
       </c>
       <c r="E23">
-        <v>10.50360952124231</v>
+        <v>13.93245924255019</v>
       </c>
       <c r="F23">
-        <v>39.05504625532055</v>
+        <v>46.36797255862335</v>
       </c>
       <c r="G23">
-        <v>3.661536288712426</v>
+        <v>2.012059355788563</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.10338944024417</v>
+        <v>27.1152030756088</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.70620881080123</v>
+        <v>24.74393788605355</v>
       </c>
       <c r="N23">
-        <v>20.85733537783314</v>
+        <v>14.10541059832365</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.082261742902478</v>
+        <v>8.489371411484846</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.749265690007879</v>
+        <v>4.288811903716637</v>
       </c>
       <c r="E24">
-        <v>10.24485099972701</v>
+        <v>12.72046383080086</v>
       </c>
       <c r="F24">
-        <v>38.32786242631518</v>
+        <v>43.14304444552037</v>
       </c>
       <c r="G24">
-        <v>3.667538536458865</v>
+        <v>2.032807028021756</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.44249502183322</v>
+        <v>24.8491715065868</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.25374154953214</v>
+        <v>22.67949630076193</v>
       </c>
       <c r="N24">
-        <v>20.91012251912928</v>
+        <v>14.27237047360659</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.931232124759576</v>
+        <v>7.785912985516339</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.781545654092461</v>
+        <v>4.419302048953745</v>
       </c>
       <c r="E25">
-        <v>9.970317190210915</v>
+        <v>11.39206929844135</v>
       </c>
       <c r="F25">
-        <v>37.56851873706272</v>
+        <v>39.65242549758533</v>
       </c>
       <c r="G25">
-        <v>3.674468423480928</v>
+        <v>2.055225099029544</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.71771427411785</v>
+        <v>22.27252274918593</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.77189670410579</v>
+        <v>20.33718996435414</v>
       </c>
       <c r="N25">
-        <v>20.97421684317742</v>
+        <v>14.48179320776934</v>
       </c>
       <c r="O25">
         <v>0</v>
